--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H2">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>1653.675528050281</v>
+        <v>3284.063860130966</v>
       </c>
       <c r="R2">
-        <v>1653.675528050281</v>
+        <v>29556.57474117869</v>
       </c>
       <c r="S2">
-        <v>0.002360787557904239</v>
+        <v>0.004370953144775923</v>
       </c>
       <c r="T2">
-        <v>0.002360787557904239</v>
+        <v>0.004370953144775923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H3">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>9.500439233207526</v>
+        <v>19.06741319052411</v>
       </c>
       <c r="R3">
-        <v>9.500439233207526</v>
+        <v>171.606718714717</v>
       </c>
       <c r="S3">
-        <v>1.356282919831638E-05</v>
+        <v>2.537793818800456E-05</v>
       </c>
       <c r="T3">
-        <v>1.356282919831638E-05</v>
+        <v>2.537793818800456E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H4">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>508.2160371394833</v>
+        <v>1057.469975561531</v>
       </c>
       <c r="R4">
-        <v>508.2160371394833</v>
+        <v>9517.229780053774</v>
       </c>
       <c r="S4">
-        <v>0.0007255293295782571</v>
+        <v>0.00140744879272916</v>
       </c>
       <c r="T4">
-        <v>0.0007255293295782571</v>
+        <v>0.00140744879272916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H5">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N5">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q5">
-        <v>15.68880344922048</v>
+        <v>60.36946890891278</v>
       </c>
       <c r="R5">
-        <v>15.68880344922048</v>
+        <v>543.325220180215</v>
       </c>
       <c r="S5">
-        <v>2.239733935289793E-05</v>
+        <v>8.034926579209139E-05</v>
       </c>
       <c r="T5">
-        <v>2.239733935289793E-05</v>
+        <v>8.034926579209139E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H6">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N6">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q6">
-        <v>511685.2375188584</v>
+        <v>536342.068253022</v>
       </c>
       <c r="R6">
-        <v>511685.2375188584</v>
+        <v>4827078.614277198</v>
       </c>
       <c r="S6">
-        <v>0.7304819608245826</v>
+        <v>0.7138491057883021</v>
       </c>
       <c r="T6">
-        <v>0.7304819608245826</v>
+        <v>0.7138491057883022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H7">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q7">
-        <v>2939.654377850517</v>
+        <v>3114.024654329598</v>
       </c>
       <c r="R7">
-        <v>2939.654377850517</v>
+        <v>28026.22188896638</v>
       </c>
       <c r="S7">
-        <v>0.004196651254766114</v>
+        <v>0.004144637995927677</v>
       </c>
       <c r="T7">
-        <v>0.004196651254766114</v>
+        <v>0.004144637995927677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H8">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N8">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q8">
-        <v>157253.7292011632</v>
+        <v>172702.3766783652</v>
       </c>
       <c r="R8">
-        <v>157253.7292011632</v>
+        <v>1554321.390105287</v>
       </c>
       <c r="S8">
-        <v>0.2244954593782081</v>
+        <v>0.2298597191171771</v>
       </c>
       <c r="T8">
-        <v>0.2244954593782081</v>
+        <v>0.2298597191171772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H9">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N9">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q9">
-        <v>4854.476578465144</v>
+        <v>9859.335016905412</v>
       </c>
       <c r="R9">
-        <v>4854.476578465144</v>
+        <v>88734.01515214871</v>
       </c>
       <c r="S9">
-        <v>0.006930251861494314</v>
+        <v>0.0131223670528208</v>
       </c>
       <c r="T9">
-        <v>0.006930251861494314</v>
+        <v>0.0131223670528208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H10">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N10">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q10">
-        <v>316.9945918148609</v>
+        <v>348.7217107419759</v>
       </c>
       <c r="R10">
-        <v>316.9945918148609</v>
+        <v>3138.495396677784</v>
       </c>
       <c r="S10">
-        <v>0.0004525415509787373</v>
+        <v>0.0004641341713003394</v>
       </c>
       <c r="T10">
-        <v>0.0004525415509787373</v>
+        <v>0.0004641341713003395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H11">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q11">
-        <v>1.821147985628859</v>
+        <v>2.024692950690222</v>
       </c>
       <c r="R11">
-        <v>1.821147985628859</v>
+        <v>18.222236556212</v>
       </c>
       <c r="S11">
-        <v>2.599871276225511E-06</v>
+        <v>2.694782561162543E-06</v>
       </c>
       <c r="T11">
-        <v>2.599871276225511E-06</v>
+        <v>2.694782561162543E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H12">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N12">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q12">
-        <v>97.42040231842766</v>
+        <v>112.2885408572373</v>
       </c>
       <c r="R12">
-        <v>97.42040231842766</v>
+        <v>1010.596867715136</v>
       </c>
       <c r="S12">
-        <v>0.0001390773883861795</v>
+        <v>0.0001494514028002696</v>
       </c>
       <c r="T12">
-        <v>0.0001390773883861795</v>
+        <v>0.0001494514028002696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H13">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N13">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q13">
-        <v>3.007401247155671</v>
+        <v>6.410394368415555</v>
       </c>
       <c r="R13">
-        <v>3.007401247155671</v>
+        <v>57.69354931574</v>
       </c>
       <c r="S13">
-        <v>4.293366700710423E-06</v>
+        <v>8.531969723256979E-06</v>
       </c>
       <c r="T13">
-        <v>4.293366700710423E-06</v>
+        <v>8.531969723256979E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H14">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N14">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q14">
-        <v>15981.75691593236</v>
+        <v>18147.47509937107</v>
       </c>
       <c r="R14">
-        <v>15981.75691593236</v>
+        <v>163327.2758943396</v>
       </c>
       <c r="S14">
-        <v>0.02281555978824158</v>
+        <v>0.02415353864409184</v>
       </c>
       <c r="T14">
-        <v>0.02281555978824158</v>
+        <v>0.02415353864409185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H15">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q15">
-        <v>91.81590211879399</v>
+        <v>105.3650053171185</v>
       </c>
       <c r="R15">
-        <v>91.81590211879399</v>
+        <v>948.2850478540662</v>
       </c>
       <c r="S15">
-        <v>0.0001310764026334504</v>
+        <v>0.0001402364634047721</v>
       </c>
       <c r="T15">
-        <v>0.0001310764026334504</v>
+        <v>0.0001402364634047721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H16">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N16">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q16">
-        <v>4911.595430040564</v>
+        <v>5843.494787908939</v>
       </c>
       <c r="R16">
-        <v>4911.595430040564</v>
+        <v>52591.45309118045</v>
       </c>
       <c r="S16">
-        <v>0.007011794746923609</v>
+        <v>0.007777449832742812</v>
       </c>
       <c r="T16">
-        <v>0.007011794746923609</v>
+        <v>0.007777449832742812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H17">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N17">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q17">
-        <v>151.6226362271349</v>
+        <v>333.5968727913411</v>
       </c>
       <c r="R17">
-        <v>151.6226362271349</v>
+        <v>3002.37185512207</v>
       </c>
       <c r="S17">
-        <v>0.000216456509774738</v>
+        <v>0.0004440036376626906</v>
       </c>
       <c r="T17">
-        <v>0.000216456509774738</v>
+        <v>0.0004440036376626906</v>
       </c>
     </row>
   </sheetData>
